--- a/2018上学期缴费/收费执行表.xlsx
+++ b/2018上学期缴费/收费执行表.xlsx
@@ -16,11 +16,12 @@
     <sheet name="Origin" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>大物</t>
   </si>
@@ -119,15 +120,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否支付</t>
+    <t>暂不收费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
+    <t>缺货</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>暂不收费</t>
+    <t>英语听说教程3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -154,13 +155,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -179,17 +173,24 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="微软雅黑 Light"/>
-      <family val="2"/>
+      <name val="等线 Light"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -239,46 +240,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="7" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="7" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="7" fontId="5" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="7" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -562,22 +560,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="8.21875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>28</v>
@@ -621,13 +620,12 @@
       <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>69.2</v>
       </c>
       <c r="C2" s="1">
@@ -667,13 +665,12 @@
         <v>1</v>
       </c>
       <c r="O2" s="1"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>30.8</v>
       </c>
       <c r="C3" s="1">
@@ -697,13 +694,12 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>16.5</v>
       </c>
       <c r="C4" s="1">
@@ -725,13 +721,15 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P4" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>27</v>
       </c>
       <c r="C5" s="1">
@@ -753,13 +751,12 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>24.7</v>
       </c>
       <c r="C6" s="1">
@@ -783,13 +780,12 @@
       <c r="O6" s="1">
         <v>1</v>
       </c>
-      <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>20.2</v>
       </c>
       <c r="C7" s="1">
@@ -813,13 +809,15 @@
       <c r="O7" s="1">
         <v>1</v>
       </c>
-      <c r="P7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P7" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>24.5</v>
       </c>
       <c r="C8" s="1">
@@ -855,107 +853,106 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="7"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="8">
-        <v>1</v>
-      </c>
-      <c r="E9" s="8">
-        <v>1</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1</v>
-      </c>
-      <c r="I9" s="8">
-        <v>1</v>
-      </c>
-      <c r="J9" s="8">
-        <v>1</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="8">
-        <v>1</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1</v>
-      </c>
-      <c r="O9" s="8"/>
-      <c r="P9" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1</v>
+      </c>
+      <c r="K9" s="4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
+      <c r="M9" s="4">
+        <v>1</v>
+      </c>
+      <c r="N9" s="4">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>0</v>
       </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="8">
-        <v>1</v>
-      </c>
-      <c r="E10" s="8">
-        <v>1</v>
-      </c>
-      <c r="F10" s="8">
-        <v>1</v>
-      </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8">
-        <v>1</v>
-      </c>
-      <c r="I10" s="8">
-        <v>1</v>
-      </c>
-      <c r="J10" s="8">
-        <v>1</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="8">
-        <v>1</v>
-      </c>
-      <c r="M10" s="8">
-        <v>1</v>
-      </c>
-      <c r="N10" s="8">
-        <v>1</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4">
+        <v>1</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1</v>
+      </c>
+      <c r="K10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <v>1</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>1</v>
+      </c>
+      <c r="O10" s="4">
+        <v>1</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>29.2</v>
       </c>
       <c r="C11" s="1"/>
@@ -979,14 +976,13 @@
         <v>1</v>
       </c>
       <c r="O11" s="1"/>
-      <c r="P11" s="7"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>25.2</v>
+      <c r="B12" s="3">
+        <v>35.200000000000003</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1005,13 +1001,12 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
-      <c r="P12" s="7"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2">
+        <v>33</v>
+      </c>
+      <c r="B13" s="3">
         <v>26.3</v>
       </c>
       <c r="C13" s="1"/>
@@ -1031,13 +1026,15 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="P13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>21</v>
       </c>
       <c r="C14" s="1"/>
@@ -1057,13 +1054,12 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>18.8</v>
       </c>
       <c r="C15" s="1"/>
@@ -1083,211 +1079,178 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3">
+      <c r="B16" s="3"/>
+      <c r="C16" s="7">
         <f>SUM(C2:C15)</f>
         <v>9</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <f t="shared" ref="D16:O16" si="0">SUM(D2:D15)</f>
         <v>9</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="7">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="7">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="7">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="7">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="7">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="7">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="10">
+      <c r="B17" s="3"/>
+      <c r="C17" s="8">
         <f>$B2*C2+$B3*C3+$B4*C4+$B5*C5+$B6*C6+$B7*C7+$B8*C8+$B9*C9+$B10*C10+$B11*C11+$B12*C12+$B13*C13+$B14*C14+$B15*C15</f>
         <v>212.89999999999998</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <f t="shared" ref="D17:O17" si="1">$B2*D2+$B3*D3+$B4*D4+$B5*D5+$B6*D6+$B7*D7+$B8*D8+$B9*D9+$B10*D10+$B11*D11+$B12*D12+$B13*D13+$B14*D14+$B15*D15</f>
         <v>212.89999999999998</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <f t="shared" si="1"/>
         <v>212.89999999999998</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>185.00000000000003</v>
-      </c>
-      <c r="G17" s="10">
+        <v>195.00000000000003</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="1"/>
         <v>122.9</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <f t="shared" si="1"/>
         <v>93.7</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <f t="shared" si="1"/>
         <v>124.5</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <f t="shared" si="1"/>
         <v>122.9</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <f t="shared" si="1"/>
-        <v>185.00000000000003</v>
-      </c>
-      <c r="L17" s="10">
+        <v>195.00000000000003</v>
+      </c>
+      <c r="L17" s="8">
         <f t="shared" si="1"/>
         <v>93.7</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <f t="shared" si="1"/>
         <v>98.4</v>
       </c>
-      <c r="N17" s="10">
+      <c r="N17" s="8">
         <f t="shared" si="1"/>
         <v>98.4</v>
       </c>
-      <c r="O17" s="10">
+      <c r="O17" s="8">
         <f t="shared" si="1"/>
         <v>44.9</v>
       </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="5">
+      <c r="B18" s="3"/>
+      <c r="C18" s="9">
         <f>SUM(C17:O17)</f>
-        <v>1808.1000000000004</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="5"/>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>1828.1000000000004</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-      <c r="C19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="L19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
